--- a/data/stats_rf.xlsx
+++ b/data/stats_rf.xlsx
@@ -391,10 +391,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6924</v>
+        <v>0.6842</v>
       </c>
       <c r="C2">
-        <v>0.903</v>
+        <v>0.9018</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -412,10 +412,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.419</v>
+        <v>0.4158</v>
       </c>
       <c r="C3">
-        <v>0.8097</v>
+        <v>0.8075</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.44</v>
+        <v>0.4565</v>
       </c>
       <c r="C4">
-        <v>0.8096</v>
+        <v>0.8073</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.3818</v>
       </c>
       <c r="C5">
-        <v>0.8119</v>
+        <v>0.8095</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>0.9086</v>
       </c>
       <c r="C6">
-        <v>0.9714</v>
+        <v>0.9724</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.835</v>
+        <v>0.8462</v>
       </c>
       <c r="C7">
-        <v>0.9448</v>
+        <v>0.9467</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.8431</v>
+        <v>0.8462</v>
       </c>
       <c r="C8">
-        <v>0.946</v>
+        <v>0.9479</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -541,7 +541,7 @@
         <v>0.8182</v>
       </c>
       <c r="C9">
-        <v>0.9446</v>
+        <v>0.9465</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.9495</v>
+        <v>0.9695</v>
       </c>
       <c r="C10">
         <v>0.9901</v>
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.9278</v>
+        <v>0.9464</v>
       </c>
       <c r="C11">
-        <v>0.9811</v>
+        <v>0.9812</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.931</v>
+        <v>0.9375</v>
       </c>
       <c r="C12">
         <v>0.9817</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C13">
-        <v>0.9808</v>
+        <v>0.9809</v>
       </c>
       <c r="D13">
         <v>1</v>

--- a/data/stats_rf.xlsx
+++ b/data/stats_rf.xlsx
@@ -391,10 +391,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6842</v>
+        <v>0.6831</v>
       </c>
       <c r="C2">
-        <v>0.9018</v>
+        <v>0.9013</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -412,10 +412,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4158</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
-        <v>0.8075</v>
+        <v>0.8064</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.4565</v>
+        <v>0.42</v>
       </c>
       <c r="C4">
-        <v>0.8073</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>0.3818</v>
       </c>
       <c r="C5">
-        <v>0.8095</v>
+        <v>0.8086</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.9086</v>
+        <v>0.8989</v>
       </c>
       <c r="C6">
-        <v>0.9724</v>
+        <v>0.9714</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.8462</v>
+        <v>0.8544</v>
       </c>
       <c r="C7">
-        <v>0.9467</v>
+        <v>0.9446</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.8462</v>
+        <v>0.8519</v>
       </c>
       <c r="C8">
-        <v>0.9479</v>
+        <v>0.9458</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.8182</v>
+        <v>0.8</v>
       </c>
       <c r="C9">
-        <v>0.9465</v>
+        <v>0.9445</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.9695</v>
+        <v>0.972</v>
       </c>
       <c r="C10">
-        <v>0.9901</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.9464</v>
+        <v>0.96</v>
       </c>
       <c r="C11">
-        <v>0.9812</v>
+        <v>0.9856</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.9375</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9817</v>
+        <v>0.9861</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.9399999999999999</v>
+        <v>0.9444</v>
       </c>
       <c r="C13">
-        <v>0.9809</v>
+        <v>0.9852</v>
       </c>
       <c r="D13">
         <v>1</v>
